--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.7310897551321</v>
+        <v>459.5275433048583</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.041167803021</v>
+        <v>628.7458576741275</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.4133791565779</v>
+        <v>568.7392354680616</v>
       </c>
       <c r="AD2" t="n">
-        <v>364731.0897551321</v>
+        <v>459527.5433048583</v>
       </c>
       <c r="AE2" t="n">
-        <v>499041.167803021</v>
+        <v>628745.8576741274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421147738986544e-06</v>
+        <v>2.04881812264428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>451413.3791565779</v>
+        <v>568739.2354680615</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.6593370026034</v>
+        <v>344.7263688750224</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.169266118615</v>
+        <v>471.6698261488568</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.1727607206432</v>
+        <v>426.6543199339678</v>
       </c>
       <c r="AD3" t="n">
-        <v>275659.3370026034</v>
+        <v>344726.3688750224</v>
       </c>
       <c r="AE3" t="n">
-        <v>377169.266118615</v>
+        <v>471669.8261488568</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.786489028476851e-06</v>
+        <v>2.575517658747233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.01822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>341172.7607206432</v>
+        <v>426654.3199339678</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.6313377237594</v>
+        <v>311.6982800876304</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.9789004126525</v>
+        <v>426.4793379735064</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.2953000926808</v>
+        <v>385.7767485248244</v>
       </c>
       <c r="AD4" t="n">
-        <v>242631.3377237594</v>
+        <v>311698.2800876304</v>
       </c>
       <c r="AE4" t="n">
-        <v>331978.9004126525</v>
+        <v>426479.3379735064</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.926981567541645e-06</v>
+        <v>2.778060752780179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>300295.3000926808</v>
+        <v>385776.7485248244</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.0458633960816</v>
+        <v>293.47952747302</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.8636315562484</v>
+        <v>401.5516368915573</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.4317340885323</v>
+        <v>363.2281122478882</v>
       </c>
       <c r="AD5" t="n">
-        <v>233045.8633960816</v>
+        <v>293479.52747302</v>
       </c>
       <c r="AE5" t="n">
-        <v>318863.6315562484</v>
+        <v>401551.6368915573</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.012341463763602e-06</v>
+        <v>2.901121077564775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>288431.7340885323</v>
+        <v>363228.1122478882</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>219.3352721978275</v>
+        <v>288.3168737071265</v>
       </c>
       <c r="AB6" t="n">
-        <v>300.1041958102124</v>
+        <v>394.4878662488522</v>
       </c>
       <c r="AC6" t="n">
-        <v>271.4626725610585</v>
+        <v>356.8384979612586</v>
       </c>
       <c r="AD6" t="n">
-        <v>219335.2721978275</v>
+        <v>288316.8737071265</v>
       </c>
       <c r="AE6" t="n">
-        <v>300104.1958102124</v>
+        <v>394487.8662488522</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.045649796251633e-06</v>
+        <v>2.949140515209735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.85677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>271462.6725610585</v>
+        <v>356838.4979612586</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.8623931221055</v>
+        <v>282.8439946314044</v>
       </c>
       <c r="AB7" t="n">
-        <v>292.6159612124289</v>
+        <v>386.9996316510649</v>
       </c>
       <c r="AC7" t="n">
-        <v>264.6891045634818</v>
+        <v>350.0649299636809</v>
       </c>
       <c r="AD7" t="n">
-        <v>213862.3931221055</v>
+        <v>282843.9946314044</v>
       </c>
       <c r="AE7" t="n">
-        <v>292615.9612124289</v>
+        <v>386999.6316510648</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.077464272202009e-06</v>
+        <v>2.99500631304441e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>264689.1045634818</v>
+        <v>350064.9299636809</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.3174758356839</v>
+        <v>281.2990773449828</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.5021372242076</v>
+        <v>384.8858076628425</v>
       </c>
       <c r="AC8" t="n">
-        <v>262.7770209699251</v>
+        <v>348.1528463701238</v>
       </c>
       <c r="AD8" t="n">
-        <v>212317.4758356839</v>
+        <v>281299.0773449828</v>
       </c>
       <c r="AE8" t="n">
-        <v>290502.1372242076</v>
+        <v>384885.8076628424</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.088201366066407e-06</v>
+        <v>3.010485599180837e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>262777.0209699251</v>
+        <v>348152.8463701238</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.2515313600725</v>
+        <v>387.2551747095106</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.9221237202079</v>
+        <v>529.8596145300987</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.3225385792086</v>
+        <v>479.290556581985</v>
       </c>
       <c r="AD2" t="n">
-        <v>303251.5313600725</v>
+        <v>387255.1747095106</v>
       </c>
       <c r="AE2" t="n">
-        <v>414922.123720208</v>
+        <v>529859.6145300987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.634063649726654e-06</v>
+        <v>2.392207711436406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>375322.5385792086</v>
+        <v>479290.556581985</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.573615603938</v>
+        <v>307.1597458898248</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.8492371760498</v>
+        <v>420.2695152580713</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.609590680759</v>
+        <v>380.1595825738094</v>
       </c>
       <c r="AD3" t="n">
-        <v>231573.6156039379</v>
+        <v>307159.7458898248</v>
       </c>
       <c r="AE3" t="n">
-        <v>316849.2371760498</v>
+        <v>420269.5152580713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.974239032779705e-06</v>
+        <v>2.890211675184372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>286609.590680759</v>
+        <v>380159.5825738094</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.445408296805</v>
+        <v>277.6994558822602</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.9406918277238</v>
+        <v>379.9606467734541</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.4600363270697</v>
+        <v>343.697735923512</v>
       </c>
       <c r="AD4" t="n">
-        <v>210445.408296805</v>
+        <v>277699.4558822602</v>
       </c>
       <c r="AE4" t="n">
-        <v>287940.6918277238</v>
+        <v>379960.6467734542</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.104171154884224e-06</v>
+        <v>3.080427414035011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260460.0363270697</v>
+        <v>343697.735923512</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.1533583519745</v>
+        <v>270.4074059374296</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.9633873906728</v>
+        <v>369.9833423363981</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.4349518222529</v>
+        <v>334.6726514186938</v>
       </c>
       <c r="AD5" t="n">
-        <v>203153.3583519745</v>
+        <v>270407.4059374296</v>
       </c>
       <c r="AE5" t="n">
-        <v>277963.3873906728</v>
+        <v>369983.3423363981</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.159901193504784e-06</v>
+        <v>3.162014094069815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>251434.9518222529</v>
+        <v>334672.6514186938</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.9883389044989</v>
+        <v>258.8250524435019</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.6328681518354</v>
+        <v>354.135855308633</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.5177312616469</v>
+        <v>320.3376263107709</v>
       </c>
       <c r="AD6" t="n">
-        <v>199988.3389044989</v>
+        <v>258825.0524435019</v>
       </c>
       <c r="AE6" t="n">
-        <v>273632.8681518354</v>
+        <v>354135.8553086331</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179001046428901e-06</v>
+        <v>3.189975560234255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>247517.7312616469</v>
+        <v>320337.6263107709</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.6715575188635</v>
+        <v>239.0426681670927</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.6757721313153</v>
+        <v>327.0687244042965</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.5607510718496</v>
+        <v>295.8537443910854</v>
       </c>
       <c r="AD2" t="n">
-        <v>184671.5575188635</v>
+        <v>239042.6681670927</v>
       </c>
       <c r="AE2" t="n">
-        <v>252675.7721313153</v>
+        <v>327068.7244042965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332240163396779e-06</v>
+        <v>3.608263407976843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>228560.7510718496</v>
+        <v>295853.7443910854</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.7800292033353</v>
+        <v>224.065798996993</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.3005261221571</v>
+        <v>306.5767112729405</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.1300899449616</v>
+        <v>277.3174602322586</v>
       </c>
       <c r="AD3" t="n">
-        <v>169780.0292033353</v>
+        <v>224065.798996993</v>
       </c>
       <c r="AE3" t="n">
-        <v>232300.5261221571</v>
+        <v>306576.7112729406</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445566358561312e-06</v>
+        <v>3.783593020078999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>210130.0899449616</v>
+        <v>277317.4602322585</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.1878495721849</v>
+        <v>284.2743223201237</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.2707297868667</v>
+        <v>388.9566690963746</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.517874172222</v>
+        <v>351.8351905019296</v>
       </c>
       <c r="AD2" t="n">
-        <v>220187.8495721849</v>
+        <v>284274.3223201237</v>
       </c>
       <c r="AE2" t="n">
-        <v>301270.7297868667</v>
+        <v>388956.6690963747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052266104314179e-06</v>
+        <v>3.101577385082703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>272517.874172222</v>
+        <v>351835.1905019296</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.8641966450656</v>
+        <v>238.9292038812563</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.2028612486519</v>
+        <v>326.9134775627241</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.3238513330746</v>
+        <v>295.7133140901823</v>
       </c>
       <c r="AD3" t="n">
-        <v>182864.1966450656</v>
+        <v>238929.2038812563</v>
       </c>
       <c r="AE3" t="n">
-        <v>250202.8612486519</v>
+        <v>326913.4775627241</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330831752651532e-06</v>
+        <v>3.522571969229363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>226323.8513330746</v>
+        <v>295713.3140901824</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.7536897613241</v>
+        <v>236.8186969975149</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.3151726213259</v>
+        <v>324.0257889353982</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.7117596554432</v>
+        <v>293.101222412551</v>
       </c>
       <c r="AD4" t="n">
-        <v>180753.6897613241</v>
+        <v>236818.6969975149</v>
       </c>
       <c r="AE4" t="n">
-        <v>247315.1726213259</v>
+        <v>324025.7889353982</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.353463439450846e-06</v>
+        <v>3.556775100984778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>223711.7596554433</v>
+        <v>293101.222412551</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.1384568193394</v>
+        <v>221.5236090618962</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.4767455471128</v>
+        <v>303.0983748502384</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.4347543932155</v>
+        <v>274.1710913558621</v>
       </c>
       <c r="AD2" t="n">
-        <v>161138.4568193394</v>
+        <v>221523.6090618962</v>
       </c>
       <c r="AE2" t="n">
-        <v>220476.7455471128</v>
+        <v>303098.3748502384</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495992274115206e-06</v>
+        <v>3.944885813226828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>199434.7543932155</v>
+        <v>274171.0913558621</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.8827907072637</v>
+        <v>397.6246172316671</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.1000376602092</v>
+        <v>544.0475432564307</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.2427709080946</v>
+        <v>492.1244093035588</v>
       </c>
       <c r="AD2" t="n">
-        <v>312882.7907072637</v>
+        <v>397624.617231667</v>
       </c>
       <c r="AE2" t="n">
-        <v>428100.0376602092</v>
+        <v>544047.5432564307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582270228868686e-06</v>
+        <v>2.306770072015743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>387242.7709080946</v>
+        <v>492124.4093035588</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.7896745449912</v>
+        <v>314.4978844184963</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.668520304332</v>
+        <v>430.3098801288234</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.441910647332</v>
+        <v>389.2417091130376</v>
       </c>
       <c r="AD3" t="n">
-        <v>246789.6745449912</v>
+        <v>314497.8844184963</v>
       </c>
       <c r="AE3" t="n">
-        <v>337668.520304332</v>
+        <v>430309.8801288233</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.924080034215776e-06</v>
+        <v>2.805089900645743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>305441.910647332</v>
+        <v>389241.7091130376</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.46332020617</v>
+        <v>293.0861892251032</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.48886144562</v>
+        <v>401.0134541478986</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.0471174761777</v>
+        <v>362.7412929099402</v>
       </c>
       <c r="AD4" t="n">
-        <v>225463.32020617</v>
+        <v>293086.1892251032</v>
       </c>
       <c r="AE4" t="n">
-        <v>308488.8614456201</v>
+        <v>401013.4541478987</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.050069156671141e-06</v>
+        <v>2.988767714825031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>279047.1174761777</v>
+        <v>362741.2929099402</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.3249804408732</v>
+        <v>277.0331008058267</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.4076730054502</v>
+        <v>379.0489103603667</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.073326669588</v>
+        <v>342.8730143540595</v>
       </c>
       <c r="AD5" t="n">
-        <v>209324.9804408732</v>
+        <v>277033.1008058267</v>
       </c>
       <c r="AE5" t="n">
-        <v>286407.6730054502</v>
+        <v>379048.9103603667</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.114535385710981e-06</v>
+        <v>3.082752146239846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>259073.326669588</v>
+        <v>342873.0143540595</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.2207390628138</v>
+        <v>262.454766283878</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.0555806518702</v>
+        <v>359.1021899167086</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.5183462879957</v>
+        <v>324.8299809141462</v>
       </c>
       <c r="AD6" t="n">
-        <v>203220.7390628138</v>
+        <v>262454.766283878</v>
       </c>
       <c r="AE6" t="n">
-        <v>278055.5806518702</v>
+        <v>359102.1899167086</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.156077098262265e-06</v>
+        <v>3.143315239386142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>251518.3462879958</v>
+        <v>324829.9809141462</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.6067573840477</v>
+        <v>262.8407846051119</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.5837479489086</v>
+        <v>359.6303572137473</v>
       </c>
       <c r="AC7" t="n">
-        <v>251.9961060394924</v>
+        <v>325.3077406656429</v>
       </c>
       <c r="AD7" t="n">
-        <v>203606.7573840477</v>
+        <v>262840.7846051119</v>
       </c>
       <c r="AE7" t="n">
-        <v>278583.7479489086</v>
+        <v>359630.3572137473</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.154856690808282e-06</v>
+        <v>3.141536024092097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>251996.1060394924</v>
+        <v>325307.740665643</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.6740028102892</v>
+        <v>216.0715578040671</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3682826141231</v>
+        <v>295.6386377917546</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.9092745892668</v>
+        <v>267.4233011324309</v>
       </c>
       <c r="AD2" t="n">
-        <v>156674.0028102892</v>
+        <v>216071.5578040672</v>
       </c>
       <c r="AE2" t="n">
-        <v>214368.2826141231</v>
+        <v>295638.6377917546</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503979105432649e-06</v>
+        <v>4.011962705780659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>193909.2745892668</v>
+        <v>267423.301132431</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.3665200373886</v>
+        <v>330.4654354351479</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.771982807628</v>
+        <v>452.1573878684401</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.2947970801426</v>
+        <v>409.004121377155</v>
       </c>
       <c r="AD2" t="n">
-        <v>256366.5200373885</v>
+        <v>330465.4354351479</v>
       </c>
       <c r="AE2" t="n">
-        <v>350771.9828076281</v>
+        <v>452157.3878684401</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.825348692151545e-06</v>
+        <v>2.710356587930401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>317294.7970801427</v>
+        <v>409004.121377155</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.9971388822765</v>
+        <v>277.6922492574701</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.0638380722867</v>
+        <v>379.9507863514825</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.3805524739067</v>
+        <v>343.6888165663742</v>
       </c>
       <c r="AD3" t="n">
-        <v>211997.1388822765</v>
+        <v>277692.2492574701</v>
       </c>
       <c r="AE3" t="n">
-        <v>290063.8380722867</v>
+        <v>379950.7863514825</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.134462068008258e-06</v>
+        <v>3.169341481212967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>262380.5524739067</v>
+        <v>343688.8165663742</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.5363278893061</v>
+        <v>249.083566297095</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.0684538044447</v>
+        <v>340.8071241989207</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.05700838881</v>
+        <v>308.2809705912804</v>
       </c>
       <c r="AD4" t="n">
-        <v>191536.3278893061</v>
+        <v>249083.566297095</v>
       </c>
       <c r="AE4" t="n">
-        <v>262068.4538044447</v>
+        <v>340807.1241989207</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262361614509616e-06</v>
+        <v>3.359252252751453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>237057.00838881</v>
+        <v>308280.9705912804</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.3484269493107</v>
+        <v>247.8956653570997</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.4431153318531</v>
+        <v>339.1817857263291</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.5867899388652</v>
+        <v>306.8107521413355</v>
       </c>
       <c r="AD5" t="n">
-        <v>190348.4269493108</v>
+        <v>247895.6653570997</v>
       </c>
       <c r="AE5" t="n">
-        <v>260443.1153318531</v>
+        <v>339181.7857263291</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.27146708698958e-06</v>
+        <v>3.372772451619978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>235586.7899388652</v>
+        <v>306810.7521413355</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.2677301938721</v>
+        <v>366.7674505557675</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.5794053415268</v>
+        <v>501.8274064883485</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.5893708668426</v>
+        <v>453.9337031322883</v>
       </c>
       <c r="AD2" t="n">
-        <v>283267.7301938721</v>
+        <v>366767.4505557675</v>
       </c>
       <c r="AE2" t="n">
-        <v>387579.4053415268</v>
+        <v>501827.4064883485</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.702943314210756e-06</v>
+        <v>2.504080188786449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>350589.3708668426</v>
+        <v>453933.7031322883</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.5625100796067</v>
+        <v>292.4305590527831</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.6245774064045</v>
+        <v>400.1163920217686</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.1698808961435</v>
+        <v>361.9298451340933</v>
       </c>
       <c r="AD3" t="n">
-        <v>225562.5100796067</v>
+        <v>292430.5590527831</v>
       </c>
       <c r="AE3" t="n">
-        <v>308624.5774064045</v>
+        <v>400116.3920217686</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018756396843869e-06</v>
+        <v>2.968465160958978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>279169.8808961435</v>
+        <v>361929.8451340933</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.7480354372437</v>
+        <v>271.5307435558482</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.1452949309248</v>
+        <v>371.5203424240764</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.4086211691904</v>
+        <v>336.0629623751973</v>
       </c>
       <c r="AD4" t="n">
-        <v>204748.0354372437</v>
+        <v>271530.7435558482</v>
       </c>
       <c r="AE4" t="n">
-        <v>280145.2949309248</v>
+        <v>371520.3424240765</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.14928889587909e-06</v>
+        <v>3.160405692448936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>253408.6211691904</v>
+        <v>336062.9623751973</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.5107208131724</v>
+        <v>255.9350123186779</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.2428817744884</v>
+        <v>350.1815749101115</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.451280426277</v>
+        <v>316.7607368837221</v>
       </c>
       <c r="AD5" t="n">
-        <v>197510.7208131724</v>
+        <v>255935.0123186779</v>
       </c>
       <c r="AE5" t="n">
-        <v>270242.8817744884</v>
+        <v>350181.5749101115</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.203695719006375e-06</v>
+        <v>3.240407796330464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>244451.280426277</v>
+        <v>316760.7368837221</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.7376898574781</v>
+        <v>255.1619813629836</v>
       </c>
       <c r="AB6" t="n">
-        <v>269.1851867171891</v>
+        <v>349.1238798528122</v>
       </c>
       <c r="AC6" t="n">
-        <v>243.4945303007617</v>
+        <v>315.8039867582069</v>
       </c>
       <c r="AD6" t="n">
-        <v>196737.6898574781</v>
+        <v>255161.9813629836</v>
       </c>
       <c r="AE6" t="n">
-        <v>269185.1867171891</v>
+        <v>349123.8798528122</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.214859843106867e-06</v>
+        <v>3.25682399865024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>243494.5303007617</v>
+        <v>315803.9867582069</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.9255850760479</v>
+        <v>438.2421915130973</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.5741584270119</v>
+        <v>599.6223003091932</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.6632212017165</v>
+        <v>542.3951895428672</v>
       </c>
       <c r="AD2" t="n">
-        <v>343925.5850760479</v>
+        <v>438242.1915130973</v>
       </c>
       <c r="AE2" t="n">
-        <v>470574.1584270119</v>
+        <v>599622.3003091932</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.47281208244175e-06</v>
+        <v>2.130824028361401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>425663.2212017165</v>
+        <v>542395.1895428672</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.7422554196599</v>
+        <v>336.8948714400509</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.3908128847518</v>
+        <v>460.9544258570461</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.4728124971689</v>
+        <v>416.9615824068488</v>
       </c>
       <c r="AD3" t="n">
-        <v>259742.2554196599</v>
+        <v>336894.8714400509</v>
       </c>
       <c r="AE3" t="n">
-        <v>355390.8128847518</v>
+        <v>460954.4258570462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833991964827182e-06</v>
+        <v>2.653369152157303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>321472.812497169</v>
+        <v>416961.5824068488</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.8189062688716</v>
+        <v>305.474867935508</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.0260752697009</v>
+        <v>417.9641909094057</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.1014814195098</v>
+        <v>378.0742751454375</v>
       </c>
       <c r="AD4" t="n">
-        <v>236818.9062688716</v>
+        <v>305474.867935508</v>
       </c>
       <c r="AE4" t="n">
-        <v>324026.0752697008</v>
+        <v>417964.1909094057</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.966643399710191e-06</v>
+        <v>2.845285601115762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>293101.4814195097</v>
+        <v>378074.2751454375</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.0324512269618</v>
+        <v>286.6030720390263</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.3216186814701</v>
+        <v>392.142967198964</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.8502220916201</v>
+        <v>354.7173927856053</v>
       </c>
       <c r="AD5" t="n">
-        <v>218032.4512269618</v>
+        <v>286603.0720390263</v>
       </c>
       <c r="AE5" t="n">
-        <v>298321.61868147</v>
+        <v>392142.967198964</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.057697151572065e-06</v>
+        <v>2.977019665938258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.8828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>269850.2220916201</v>
+        <v>354717.3927856053</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>213.5355028677202</v>
+        <v>282.1061236797846</v>
       </c>
       <c r="AB6" t="n">
-        <v>292.1686955449989</v>
+        <v>385.9900440624896</v>
       </c>
       <c r="AC6" t="n">
-        <v>264.2845253036099</v>
+        <v>349.1516959975942</v>
       </c>
       <c r="AD6" t="n">
-        <v>213535.5028677202</v>
+        <v>282106.1236797846</v>
       </c>
       <c r="AE6" t="n">
-        <v>292168.6955449989</v>
+        <v>385990.0440624896</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.086142625990929e-06</v>
+        <v>3.018173796266526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>264284.52530361</v>
+        <v>349151.6959975942</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>209.4674383389517</v>
+        <v>278.0380591510161</v>
       </c>
       <c r="AB7" t="n">
-        <v>286.6025901864</v>
+        <v>380.4239387038879</v>
       </c>
       <c r="AC7" t="n">
-        <v>259.249641228356</v>
+        <v>344.1168119223395</v>
       </c>
       <c r="AD7" t="n">
-        <v>209467.4383389517</v>
+        <v>278038.0591510161</v>
       </c>
       <c r="AE7" t="n">
-        <v>286602.5901864</v>
+        <v>380423.9387038879</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.105623893831144e-06</v>
+        <v>3.046358758972735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>259249.641228356</v>
+        <v>344116.8119223395</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>209.6533225358097</v>
+        <v>278.2239433478741</v>
       </c>
       <c r="AB8" t="n">
-        <v>286.856925145173</v>
+        <v>380.678273662661</v>
       </c>
       <c r="AC8" t="n">
-        <v>259.4797028156252</v>
+        <v>344.3468735096086</v>
       </c>
       <c r="AD8" t="n">
-        <v>209653.3225358097</v>
+        <v>278223.9433478741</v>
       </c>
       <c r="AE8" t="n">
-        <v>286856.925145173</v>
+        <v>380678.273662661</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.105694478134913e-06</v>
+        <v>3.04646087840283e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>259479.7028156252</v>
+        <v>344346.8735096086</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.1602873666984</v>
+        <v>301.9372296109199</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.5472150133327</v>
+        <v>413.1238380841164</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.6227088788332</v>
+        <v>373.6958788003158</v>
       </c>
       <c r="AD2" t="n">
-        <v>229160.2873666984</v>
+        <v>301937.22961092</v>
       </c>
       <c r="AE2" t="n">
-        <v>313547.2150133327</v>
+        <v>413123.8380841163</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97498630278068e-06</v>
+        <v>2.965806543815244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283622.7088788332</v>
+        <v>373695.8788003158</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.2996794096545</v>
+        <v>254.9808124206735</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.3764167975058</v>
+        <v>348.875996513334</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.526457019024</v>
+        <v>315.5797610567419</v>
       </c>
       <c r="AD3" t="n">
-        <v>190299.6794096545</v>
+        <v>254980.8124206735</v>
       </c>
       <c r="AE3" t="n">
-        <v>260376.4167975058</v>
+        <v>348875.996513334</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.256378134014204e-06</v>
+        <v>3.388368327293708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>235526.457019024</v>
+        <v>315579.7610567419</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.1774859808631</v>
+        <v>240.7628992672342</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.9997616561256</v>
+        <v>329.4224204867489</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.9492580876251</v>
+        <v>297.9828070228625</v>
       </c>
       <c r="AD4" t="n">
-        <v>184177.485980863</v>
+        <v>240762.8992672342</v>
       </c>
       <c r="AE4" t="n">
-        <v>251999.7616561256</v>
+        <v>329422.4204867489</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321132617836735e-06</v>
+        <v>3.48560913933977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>227949.2580876251</v>
+        <v>297982.8070228625</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.8230408536356</v>
+        <v>256.517984589686</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.1972353648948</v>
+        <v>350.9792232902258</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.8871834284043</v>
+        <v>317.4822588219452</v>
       </c>
       <c r="AD2" t="n">
-        <v>193823.0408536356</v>
+        <v>256517.984589686</v>
       </c>
       <c r="AE2" t="n">
-        <v>265197.2353648948</v>
+        <v>350979.2232902258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.234211827961551e-06</v>
+        <v>3.42671512744913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.45572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>239887.1834284043</v>
+        <v>317482.2588219452</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3825513167052</v>
+        <v>228.3046439152469</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.2296558097261</v>
+        <v>312.3764858947325</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5887904132275</v>
+        <v>282.5637125041833</v>
       </c>
       <c r="AD3" t="n">
-        <v>173382.5513167052</v>
+        <v>228304.6439152469</v>
       </c>
       <c r="AE3" t="n">
-        <v>237229.6558097261</v>
+        <v>312376.4858947325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410824438163439e-06</v>
+        <v>3.697594144157791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214588.7904132275</v>
+        <v>282563.7125041833</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.209915602393</v>
+        <v>228.4706554685518</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.7839833079399</v>
+        <v>312.603630225877</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.9491610414333</v>
+        <v>282.7691784991624</v>
       </c>
       <c r="AD2" t="n">
-        <v>167209.915602393</v>
+        <v>228470.6554685518</v>
       </c>
       <c r="AE2" t="n">
-        <v>228783.9833079399</v>
+        <v>312603.630225877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.446189669466544e-06</v>
+        <v>3.822123106556038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>206949.1610414333</v>
+        <v>282769.1784991624</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.8524239988803</v>
+        <v>219.4449932834988</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.9266034077118</v>
+        <v>300.2543210401804</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.2690468720333</v>
+        <v>271.5984700497806</v>
       </c>
       <c r="AD3" t="n">
-        <v>165852.4239988803</v>
+        <v>219444.9932834988</v>
       </c>
       <c r="AE3" t="n">
-        <v>226926.6034077118</v>
+        <v>300254.3210401804</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.468214318005346e-06</v>
+        <v>3.856536185453674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>205269.0468720333</v>
+        <v>271598.4700497806</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8323287539182</v>
+        <v>216.9957858266428</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3213993888153</v>
+        <v>296.9032073463046</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5805500437087</v>
+        <v>268.5671819435296</v>
       </c>
       <c r="AD2" t="n">
-        <v>158832.3287539182</v>
+        <v>216995.7858266428</v>
       </c>
       <c r="AE2" t="n">
-        <v>217321.3993888152</v>
+        <v>296903.2073463046</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481700346670668e-06</v>
+        <v>4.044367824464326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196580.5500437087</v>
+        <v>268567.1819435296</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.3357669231078</v>
+        <v>348.9252763300779</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.3582991440582</v>
+        <v>477.4149565715868</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.53462989243</v>
+        <v>431.8511431724938</v>
       </c>
       <c r="AD2" t="n">
-        <v>274335.7669231078</v>
+        <v>348925.2763300779</v>
       </c>
       <c r="AE2" t="n">
-        <v>375358.2991440581</v>
+        <v>477414.9565715868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.759358858199602e-06</v>
+        <v>2.599243005803512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>339534.62989243</v>
+        <v>431851.1431724938</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.5151241705474</v>
+        <v>284.7220970837274</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.9820330969109</v>
+        <v>389.5693342823656</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.4476074821489</v>
+        <v>352.3893837824506</v>
       </c>
       <c r="AD3" t="n">
-        <v>218515.1241705474</v>
+        <v>284722.0970837274</v>
       </c>
       <c r="AE3" t="n">
-        <v>298982.0330969109</v>
+        <v>389569.3342823656</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.07711832509551e-06</v>
+        <v>3.068694742728997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>270447.6074821489</v>
+        <v>352389.3837824506</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.383440612601</v>
+        <v>264.6756648718012</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.4369755057461</v>
+        <v>362.140921343836</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.531411527745</v>
+        <v>327.5787000787549</v>
       </c>
       <c r="AD4" t="n">
-        <v>198383.440612601</v>
+        <v>264675.6648718013</v>
       </c>
       <c r="AE4" t="n">
-        <v>271436.9755057461</v>
+        <v>362140.921343836</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.200706496151329e-06</v>
+        <v>3.25128153434331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>245531.411527745</v>
+        <v>327578.7000787549</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.3875660115167</v>
+        <v>251.3826841400437</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.6013994741139</v>
+        <v>343.9528786615622</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.3482132787784</v>
+        <v>311.1264986631024</v>
       </c>
       <c r="AD5" t="n">
-        <v>193387.5660115167</v>
+        <v>251382.6841400437</v>
       </c>
       <c r="AE5" t="n">
-        <v>264601.3994741139</v>
+        <v>343952.8786615622</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.242017442571979e-06</v>
+        <v>3.312313533611999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>239348.2132787784</v>
+        <v>311126.4986631024</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.3751670732522</v>
+        <v>417.579744134298</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.7703669471081</v>
+        <v>571.3510282426768</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.3677213998941</v>
+        <v>516.8220880033996</v>
       </c>
       <c r="AD2" t="n">
-        <v>332375.1670732521</v>
+        <v>417579.7441342981</v>
       </c>
       <c r="AE2" t="n">
-        <v>454770.3669471081</v>
+        <v>571351.0282426768</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526674213634603e-06</v>
+        <v>2.216988989999655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>411367.7213998941</v>
+        <v>516822.0880033995</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.6778344684487</v>
+        <v>321.8244458480844</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.0932045957705</v>
+        <v>440.334404701864</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.9671162976259</v>
+        <v>398.3095071303358</v>
       </c>
       <c r="AD3" t="n">
-        <v>253677.8344684487</v>
+        <v>321824.4458480844</v>
       </c>
       <c r="AE3" t="n">
-        <v>347093.2045957705</v>
+        <v>440334.404701864</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.873516223258824e-06</v>
+        <v>2.720662209694381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>313967.1162976259</v>
+        <v>398309.5071303358</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.2565655749563</v>
+        <v>299.31783610002</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.4154353391373</v>
+        <v>409.5398683230172</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.2171902823164</v>
+        <v>370.4539580830829</v>
       </c>
       <c r="AD4" t="n">
-        <v>231256.5655749563</v>
+        <v>299317.83610002</v>
       </c>
       <c r="AE4" t="n">
-        <v>316415.4353391373</v>
+        <v>409539.8683230172</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007508266374939e-06</v>
+        <v>2.915241303048403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>286217.1902823164</v>
+        <v>370453.9580830829</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.3070199153877</v>
+        <v>283.4535417864719</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.5925633234327</v>
+        <v>387.8336409599507</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.4770625431905</v>
+        <v>350.819342594666</v>
       </c>
       <c r="AD5" t="n">
-        <v>215307.0199153877</v>
+        <v>283453.5417864718</v>
       </c>
       <c r="AE5" t="n">
-        <v>294592.5633234327</v>
+        <v>387833.6409599507</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.068525889408694e-06</v>
+        <v>3.003849204625341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.93489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>266477.0625431906</v>
+        <v>350819.342594666</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.6517479077947</v>
+        <v>267.4399686473154</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.1182824358839</v>
+        <v>365.9231637219701</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.0024323228005</v>
+        <v>330.9999705527302</v>
       </c>
       <c r="AD6" t="n">
-        <v>207651.7479077948</v>
+        <v>267439.9686473154</v>
       </c>
       <c r="AE6" t="n">
-        <v>284118.2824358839</v>
+        <v>365923.16372197</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.128333598455387e-06</v>
+        <v>3.090700106598693e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.51822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>257002.4323228005</v>
+        <v>330999.9705527303</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>206.0807534107998</v>
+        <v>265.6983819497282</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.9687784577107</v>
+        <v>363.5402479689488</v>
       </c>
       <c r="AC7" t="n">
-        <v>255.0580739874557</v>
+        <v>328.8444769347341</v>
       </c>
       <c r="AD7" t="n">
-        <v>206080.7534107998</v>
+        <v>265698.3819497282</v>
       </c>
       <c r="AE7" t="n">
-        <v>281968.7784577107</v>
+        <v>363540.2479689488</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.135521910966752e-06</v>
+        <v>3.101138751302353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>255058.0739874557</v>
+        <v>328844.4769347341</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.8763524785155</v>
+        <v>223.831987356293</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.7498787078845</v>
+        <v>306.2567998710934</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.8726973014498</v>
+        <v>277.0280807256051</v>
       </c>
       <c r="AD2" t="n">
-        <v>159876.3524785155</v>
+        <v>223831.987356293</v>
       </c>
       <c r="AE2" t="n">
-        <v>218749.8787078845</v>
+        <v>306256.7998710935</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.372271856782571e-06</v>
+        <v>3.954435847572433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197872.6973014498</v>
+        <v>277028.0807256051</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.8685504314182</v>
+        <v>274.1807375046202</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.5737006289291</v>
+        <v>375.1461810542683</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.0824562181212</v>
+        <v>339.3427560554201</v>
       </c>
       <c r="AD2" t="n">
-        <v>202868.5504314182</v>
+        <v>274180.7375046202</v>
       </c>
       <c r="AE2" t="n">
-        <v>277573.7006289291</v>
+        <v>375146.1810542683</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142074602602755e-06</v>
+        <v>3.260037521923317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251082.4562181212</v>
+        <v>339342.7560554201</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.0010072493477</v>
+        <v>232.5135427340375</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.1805868517744</v>
+        <v>318.1352869421098</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.0672115452997</v>
+        <v>287.7729016621288</v>
       </c>
       <c r="AD3" t="n">
-        <v>177001.0072493477</v>
+        <v>232513.5427340375</v>
       </c>
       <c r="AE3" t="n">
-        <v>242180.5868517744</v>
+        <v>318135.2869421098</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.386057485105493e-06</v>
+        <v>3.631356686391017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>219067.2115452997</v>
+        <v>287772.9016621288</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.3160088354959</v>
+        <v>232.8285443201857</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.6115859188312</v>
+        <v>318.5662860091667</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.4570766663078</v>
+        <v>288.1627667831369</v>
       </c>
       <c r="AD4" t="n">
-        <v>177316.0088354959</v>
+        <v>232828.5443201857</v>
       </c>
       <c r="AE4" t="n">
-        <v>242611.5859188312</v>
+        <v>318566.2860091667</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.383523073068358e-06</v>
+        <v>3.62749954792953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219457.0766663078</v>
+        <v>288162.7667831369</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.4370967455696</v>
+        <v>319.7624949222612</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.186107804529</v>
+        <v>437.513152478298</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.0055389194398</v>
+        <v>395.7575112593345</v>
       </c>
       <c r="AD2" t="n">
-        <v>246437.0967455696</v>
+        <v>319762.4949222612</v>
       </c>
       <c r="AE2" t="n">
-        <v>337186.107804529</v>
+        <v>437513.152478298</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.902444397143412e-06</v>
+        <v>2.840179585276405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305005.5389194398</v>
+        <v>395757.5112593345</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.1004763635786</v>
+        <v>262.3449047332589</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.6815672198466</v>
+        <v>358.951872496402</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.9435369449202</v>
+        <v>324.6940095774618</v>
       </c>
       <c r="AD3" t="n">
-        <v>197100.4763635786</v>
+        <v>262344.9047332589</v>
       </c>
       <c r="AE3" t="n">
-        <v>269681.5672198466</v>
+        <v>358951.872496402</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.19392261563285e-06</v>
+        <v>3.275330534733579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>243943.5369449202</v>
+        <v>324694.0095774618</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.42584788495</v>
+        <v>244.5041446101469</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.4443137209082</v>
+        <v>334.5413574170153</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.9696283413143</v>
+        <v>302.613199796979</v>
       </c>
       <c r="AD4" t="n">
-        <v>187425.84788495</v>
+        <v>244504.1446101469</v>
       </c>
       <c r="AE4" t="n">
-        <v>256444.3137209082</v>
+        <v>334541.3574170152</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.293891066506849e-06</v>
+        <v>3.42457450410812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>231969.6283413143</v>
+        <v>302613.199796979</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.5465185160068</v>
+        <v>244.6248152412037</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.6094206019325</v>
+        <v>334.7064642980395</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.1189776533426</v>
+        <v>302.7625491090073</v>
       </c>
       <c r="AD5" t="n">
-        <v>187546.5185160068</v>
+        <v>244624.8152412037</v>
       </c>
       <c r="AE5" t="n">
-        <v>256609.4206019324</v>
+        <v>334706.4642980395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.290973014090799e-06</v>
+        <v>3.420218112450485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>232118.9776533426</v>
+        <v>302762.5491090073</v>
       </c>
     </row>
   </sheetData>
